--- a/file/202009_1车间补.xlsx
+++ b/file/202009_1车间补.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12195"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -289,19 +289,10 @@
     <t>冯金平</t>
   </si>
   <si>
-    <t>07:29</t>
+    <t>07:36</t>
   </si>
   <si>
-    <t>06:60</t>
-  </si>
-  <si>
-    <t>08:02</t>
-  </si>
-  <si>
-    <t>03:60</t>
-  </si>
-  <si>
-    <t>07:36</t>
+    <t>07:29</t>
   </si>
   <si>
     <t>07:35</t>
@@ -325,6 +316,12 @@
     <t>07:31</t>
   </si>
   <si>
+    <t>06:60</t>
+  </si>
+  <si>
+    <t>03:60</t>
+  </si>
+  <si>
     <t>07:28</t>
   </si>
   <si>
@@ -332,6 +329,9 @@
   </si>
   <si>
     <t>07:40</t>
+  </si>
+  <si>
+    <t>08:02</t>
   </si>
   <si>
     <t>12:22</t>
@@ -346,12 +346,6 @@
     <t>16:39</t>
   </si>
   <si>
-    <t>18:23</t>
-  </si>
-  <si>
-    <t>18:21</t>
-  </si>
-  <si>
     <t>19:60</t>
   </si>
   <si>
@@ -362,6 +356,12 @@
   </si>
   <si>
     <t>19:28</t>
+  </si>
+  <si>
+    <t>18:23</t>
+  </si>
+  <si>
+    <t>18:21</t>
   </si>
   <si>
     <t>21:17</t>
@@ -1198,6 +1198,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1206,14 +1228,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1234,17 +1256,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1263,8 +1295,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1274,54 +1321,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1341,10 +1340,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1357,163 +1357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,13 +1381,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,17 +1566,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1614,17 +1608,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1658,8 +1658,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1668,157 +1668,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2142,8 +2145,8 @@
   <sheetPr/>
   <dimension ref="A1:AD676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="Z500" sqref="Z500"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="L108" sqref="L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
@@ -3371,88 +3374,88 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="1:30">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="L16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="U16" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC16" s="2" t="s">
         <v>44</v>
@@ -3463,22 +3466,22 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="1:30">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>51</v>
@@ -3738,20 +3741,20 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:30">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
+      <c r="A20" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>38</v>
@@ -3760,13 +3763,13 @@
         <v>77</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>77</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>75</v>
@@ -3805,7 +3808,7 @@
         <v>71</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="X20" s="2" t="s">
         <v>38</v>
@@ -3831,19 +3834,19 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="1:30">
       <c r="A21" s="2" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>38</v>
@@ -4923,7 +4926,7 @@
         <v>135</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y33" s="2" t="s">
         <v>71</v>
@@ -5990,13 +5993,13 @@
         <v>77</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>71</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>73</v>
@@ -6011,7 +6014,7 @@
         <v>74</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>71</v>
@@ -7861,7 +7864,7 @@
         <v>129</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>42</v>
@@ -7912,7 +7915,7 @@
         <v>38</v>
       </c>
       <c r="AB68" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AC68" s="2" t="s">
         <v>41</v>
@@ -8967,19 +8970,19 @@
         <v>38</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>168</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>169</v>
@@ -9012,25 +9015,25 @@
         <v>168</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="2" t="s">
         <v>168</v>
       </c>
       <c r="Z81" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA81" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AB81" s="2" t="s">
         <v>168</v>
       </c>
       <c r="AC81" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AD81" s="2" t="s">
         <v>168</v>
@@ -10100,7 +10103,7 @@
         <v>183</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>35</v>
@@ -10421,7 +10424,7 @@
         <v>164</v>
       </c>
       <c r="AC97" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AD97" s="2" t="s">
         <v>70</v>
@@ -11301,7 +11304,7 @@
         <v>53</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>38</v>
@@ -12291,31 +12294,31 @@
     </row>
     <row r="120" s="1" customFormat="1" spans="1:30">
       <c r="A120" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>210</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>211</v>
@@ -12339,16 +12342,16 @@
         <v>213</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="R120" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="T120" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="U120" s="2" t="s">
         <v>40</v>
@@ -12357,19 +12360,19 @@
         <v>46</v>
       </c>
       <c r="W120" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X120" s="2" t="s">
         <v>41</v>
       </c>
       <c r="Y120" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z120" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AA120" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB120" s="2" t="s">
         <v>41</v>
@@ -12437,7 +12440,7 @@
         <v>38</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T121" s="2" t="s">
         <v>38</v>
@@ -12722,7 +12725,7 @@
         <v>75</v>
       </c>
       <c r="V124" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="W124" s="2" t="s">
         <v>72</v>
@@ -12775,7 +12778,7 @@
         <v>143</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>80</v>
@@ -13427,7 +13430,7 @@
         <v>38</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>168</v>
@@ -13436,13 +13439,13 @@
         <v>168</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>168</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="N133" s="2" t="s">
         <v>41</v>
@@ -13469,19 +13472,19 @@
         <v>38</v>
       </c>
       <c r="V133" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="W133" s="2" t="s">
         <v>168</v>
       </c>
       <c r="X133" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Y133" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Z133" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA133" s="2" t="s">
         <v>168</v>
@@ -13490,10 +13493,10 @@
         <v>168</v>
       </c>
       <c r="AC133" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AD133" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="1" spans="1:30">
@@ -13786,7 +13789,7 @@
         <v>38</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>38</v>
@@ -13878,7 +13881,7 @@
         <v>38</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>38</v>
@@ -13941,7 +13944,7 @@
         <v>227</v>
       </c>
       <c r="Z138" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AA138" s="2" t="s">
         <v>220</v>
@@ -14527,7 +14530,7 @@
         <v>130</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>41</v>
@@ -14548,13 +14551,13 @@
         <v>168</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M146" s="2" t="s">
         <v>169</v>
@@ -14590,22 +14593,22 @@
         <v>168</v>
       </c>
       <c r="X146" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Y146" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Z146" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA146" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AB146" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AC146" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AD146" s="2" t="s">
         <v>168</v>
@@ -14973,7 +14976,7 @@
         <v>231</v>
       </c>
       <c r="AC150" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AD150" s="2" t="s">
         <v>38</v>
@@ -14981,13 +14984,13 @@
     </row>
     <row r="151" s="1" customFormat="1" spans="1:30">
       <c r="A151" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>143</v>
@@ -15026,16 +15029,16 @@
         <v>83</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q151" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R151" s="2" t="s">
         <v>143</v>
       </c>
       <c r="S151" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T151" s="2" t="s">
         <v>38</v>
@@ -16751,25 +16754,25 @@
     </row>
     <row r="172" s="1" customFormat="1" spans="1:30">
       <c r="A172" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>128</v>
@@ -16793,22 +16796,22 @@
         <v>38</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P172" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Q172" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="R172" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="S172" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="T172" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="U172" s="2" t="s">
         <v>129</v>
@@ -16823,16 +16826,16 @@
         <v>36</v>
       </c>
       <c r="Y172" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Z172" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AA172" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB172" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AC172" s="2" t="s">
         <v>48</v>
@@ -17185,7 +17188,7 @@
         <v>233</v>
       </c>
       <c r="W176" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X176" s="2" t="s">
         <v>75</v>
@@ -17194,7 +17197,7 @@
         <v>233</v>
       </c>
       <c r="Z176" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AA176" s="2" t="s">
         <v>76</v>
@@ -17235,7 +17238,7 @@
         <v>136</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>241</v>
@@ -17283,19 +17286,19 @@
         <v>136</v>
       </c>
       <c r="Y177" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Z177" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AA177" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB177" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC177" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AD177" s="2" t="s">
         <v>38</v>
@@ -18344,7 +18347,7 @@
         <v>38</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>38</v>
@@ -19011,7 +19014,7 @@
         <v>212</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L198" s="2" t="s">
         <v>48</v>
@@ -19062,7 +19065,7 @@
         <v>37</v>
       </c>
       <c r="AB198" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AC198" s="2" t="s">
         <v>45</v>
@@ -19418,7 +19421,7 @@
         <v>38</v>
       </c>
       <c r="X202" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y202" s="2" t="s">
         <v>38</v>
@@ -21220,7 +21223,7 @@
         <v>43</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>38</v>
@@ -21292,13 +21295,13 @@
         <v>130</v>
       </c>
       <c r="AB224" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC224" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AD224" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="225" s="1" customFormat="1" spans="1:30">
@@ -21645,7 +21648,7 @@
         <v>76</v>
       </c>
       <c r="W228" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="X228" s="2" t="s">
         <v>73</v>
@@ -21719,13 +21722,13 @@
         <v>84</v>
       </c>
       <c r="Q229" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R229" s="2" t="s">
         <v>136</v>
       </c>
       <c r="S229" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T229" s="2" t="s">
         <v>38</v>
@@ -21740,16 +21743,16 @@
         <v>80</v>
       </c>
       <c r="X229" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Y229" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Z229" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AA229" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB229" s="2" t="s">
         <v>86</v>
@@ -22807,7 +22810,7 @@
         <v>136</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I242" s="2" t="s">
         <v>117</v>
@@ -22828,19 +22831,19 @@
         <v>143</v>
       </c>
       <c r="O242" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P242" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q242" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R242" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S242" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T242" s="2" t="s">
         <v>38</v>
@@ -22864,7 +22867,7 @@
         <v>84</v>
       </c>
       <c r="AA242" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB242" s="2" t="s">
         <v>248</v>
@@ -24951,10 +24954,10 @@
         <v>71</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K267" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L267" s="2" t="s">
         <v>72</v>
@@ -24993,7 +24996,7 @@
         <v>74</v>
       </c>
       <c r="X267" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y267" s="2" t="s">
         <v>233</v>
@@ -25043,13 +25046,13 @@
         <v>136</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K268" s="2" t="s">
         <v>125</v>
       </c>
       <c r="L268" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M268" s="2" t="s">
         <v>38</v>
@@ -26798,13 +26801,13 @@
         <v>130</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H289" s="2" t="s">
         <v>41</v>
@@ -26813,22 +26816,22 @@
         <v>41</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K289" s="2" t="s">
         <v>130</v>
       </c>
       <c r="L289" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M289" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N289" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O289" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P289" s="2" t="s">
         <v>212</v>
@@ -26840,19 +26843,19 @@
         <v>128</v>
       </c>
       <c r="S289" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="T289" s="2" t="s">
         <v>38</v>
       </c>
       <c r="U289" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V289" s="2" t="s">
         <v>212</v>
       </c>
       <c r="W289" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X289" s="2" t="s">
         <v>48</v>
@@ -26861,16 +26864,16 @@
         <v>212</v>
       </c>
       <c r="Z289" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA289" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AB289" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC289" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AD289" s="2" t="s">
         <v>212</v>
@@ -27246,7 +27249,7 @@
     </row>
     <row r="294" s="1" customFormat="1" spans="1:30">
       <c r="A294" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>38</v>
@@ -27258,7 +27261,7 @@
         <v>136</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>38</v>
@@ -27324,13 +27327,13 @@
         <v>84</v>
       </c>
       <c r="AA294" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB294" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC294" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AD294" s="2" t="s">
         <v>38</v>
@@ -29530,7 +29533,7 @@
         <v>298</v>
       </c>
       <c r="S320" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T320" s="2" t="s">
         <v>38</v>
@@ -30131,22 +30134,22 @@
     </row>
     <row r="328" s="1" customFormat="1" spans="1:30">
       <c r="A328" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>129</v>
@@ -30155,7 +30158,7 @@
         <v>129</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J328" s="2" t="s">
         <v>46</v>
@@ -30164,7 +30167,7 @@
         <v>128</v>
       </c>
       <c r="L328" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M328" s="2" t="s">
         <v>129</v>
@@ -30173,22 +30176,22 @@
         <v>38</v>
       </c>
       <c r="O328" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P328" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Q328" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="R328" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="S328" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="T328" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="U328" s="2" t="s">
         <v>36</v>
@@ -30615,13 +30618,13 @@
         <v>136</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J333" s="2" t="s">
         <v>143</v>
       </c>
       <c r="K333" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L333" s="2" t="s">
         <v>136</v>
@@ -30663,16 +30666,16 @@
         <v>136</v>
       </c>
       <c r="Y333" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Z333" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AA333" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB333" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC333" s="2" t="s">
         <v>38</v>
@@ -31264,7 +31267,7 @@
         <v>38</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H341" s="2" t="s">
         <v>41</v>
@@ -31282,7 +31285,7 @@
         <v>43</v>
       </c>
       <c r="M341" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N341" s="2" t="s">
         <v>43</v>
@@ -31297,7 +31300,7 @@
         <v>40</v>
       </c>
       <c r="R341" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S341" s="2" t="s">
         <v>129</v>
@@ -32391,13 +32394,13 @@
         <v>38</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L354" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M354" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="N354" s="2" t="s">
         <v>41</v>
@@ -32424,31 +32427,31 @@
         <v>38</v>
       </c>
       <c r="V354" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W354" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="X354" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Y354" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Z354" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA354" s="2" t="s">
         <v>303</v>
       </c>
       <c r="AB354" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AC354" s="2" t="s">
         <v>168</v>
       </c>
       <c r="AD354" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="355" s="1" customFormat="1" spans="1:30">
@@ -32833,7 +32836,7 @@
         <v>84</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>38</v>
@@ -33497,7 +33500,7 @@
         <v>38</v>
       </c>
       <c r="H367" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I367" s="2" t="s">
         <v>308</v>
@@ -33506,10 +33509,10 @@
         <v>168</v>
       </c>
       <c r="K367" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L367" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M367" s="2" t="s">
         <v>309</v>
@@ -33530,10 +33533,10 @@
         <v>128</v>
       </c>
       <c r="S367" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="T367" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U367" s="2" t="s">
         <v>38</v>
@@ -33551,19 +33554,19 @@
         <v>308</v>
       </c>
       <c r="Z367" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA367" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AB367" s="2" t="s">
         <v>168</v>
       </c>
       <c r="AC367" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AD367" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="368" s="1" customFormat="1" spans="1:30">
@@ -33907,7 +33910,7 @@
         <v>214</v>
       </c>
       <c r="V371" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="W371" s="2" t="s">
         <v>227</v>
@@ -33975,13 +33978,13 @@
         <v>38</v>
       </c>
       <c r="N372" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O372" s="2" t="s">
         <v>143</v>
       </c>
       <c r="P372" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q372" s="2" t="s">
         <v>125</v>
@@ -34591,22 +34594,22 @@
     </row>
     <row r="380" s="1" customFormat="1" spans="1:30">
       <c r="A380" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G380" s="2" t="s">
         <v>36</v>
@@ -34633,22 +34636,22 @@
         <v>38</v>
       </c>
       <c r="O380" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P380" s="2" t="s">
         <v>168</v>
       </c>
       <c r="Q380" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="R380" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="S380" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="T380" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="U380" s="2" t="s">
         <v>128</v>
@@ -34669,7 +34672,7 @@
         <v>43</v>
       </c>
       <c r="AA380" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB380" s="2" t="s">
         <v>40</v>
@@ -34980,7 +34983,7 @@
         <v>239</v>
       </c>
       <c r="H384" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I384" s="2" t="s">
         <v>71</v>
@@ -35025,16 +35028,16 @@
         <v>38</v>
       </c>
       <c r="W384" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X384" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Y384" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Z384" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA384" s="2" t="s">
         <v>135</v>
@@ -35043,7 +35046,7 @@
         <v>135</v>
       </c>
       <c r="AC384" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AD384" s="2" t="s">
         <v>38</v>
@@ -35072,10 +35075,10 @@
         <v>143</v>
       </c>
       <c r="H385" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I385" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J385" s="2" t="s">
         <v>80</v>
@@ -35739,7 +35742,7 @@
         <v>34</v>
       </c>
       <c r="L393" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M393" s="2" t="s">
         <v>38</v>
@@ -35760,7 +35763,7 @@
         <v>42</v>
       </c>
       <c r="S393" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="T393" s="2" t="s">
         <v>38</v>
@@ -36896,7 +36899,7 @@
         <v>243</v>
       </c>
       <c r="Z406" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA406" s="2" t="s">
         <v>41</v>
@@ -37219,7 +37222,7 @@
         <v>75</v>
       </c>
       <c r="K410" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L410" s="2" t="s">
         <v>71</v>
@@ -37237,7 +37240,7 @@
         <v>76</v>
       </c>
       <c r="Q410" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="R410" s="2" t="s">
         <v>234</v>
@@ -37249,7 +37252,7 @@
         <v>38</v>
       </c>
       <c r="U410" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="V410" s="2" t="s">
         <v>71</v>
@@ -38396,7 +38399,7 @@
     </row>
     <row r="424" s="1" customFormat="1" spans="1:30">
       <c r="A424" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>136</v>
@@ -39084,10 +39087,10 @@
         <v>168</v>
       </c>
       <c r="L432" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M432" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="N432" s="2" t="s">
         <v>47</v>
@@ -39117,19 +39120,19 @@
         <v>311</v>
       </c>
       <c r="W432" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X432" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="X432" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="Y432" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Z432" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AA432" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AB432" s="2" t="s">
         <v>168</v>
@@ -41765,7 +41768,7 @@
         <v>143</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J463" s="2" t="s">
         <v>84</v>
@@ -42868,7 +42871,7 @@
         <v>136</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>38</v>
@@ -42880,13 +42883,13 @@
         <v>136</v>
       </c>
       <c r="I476" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J476" s="2" t="s">
         <v>136</v>
       </c>
       <c r="K476" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L476" s="2" t="s">
         <v>83</v>
@@ -42901,7 +42904,7 @@
         <v>136</v>
       </c>
       <c r="P476" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q476" s="2" t="s">
         <v>136</v>
@@ -42910,7 +42913,7 @@
         <v>143</v>
       </c>
       <c r="S476" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T476" s="2" t="s">
         <v>38</v>
@@ -43523,7 +43526,7 @@
         <v>336</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>38</v>
@@ -43565,7 +43568,7 @@
         <v>45</v>
       </c>
       <c r="S484" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T484" s="2" t="s">
         <v>338</v>
@@ -43977,25 +43980,25 @@
         <v>136</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D489" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H489" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I489" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J489" s="2" t="s">
         <v>136</v>
@@ -44010,7 +44013,7 @@
         <v>38</v>
       </c>
       <c r="N489" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O489" s="2" t="s">
         <v>80</v>
@@ -44019,13 +44022,13 @@
         <v>83</v>
       </c>
       <c r="Q489" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R489" s="2" t="s">
         <v>136</v>
       </c>
       <c r="S489" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T489" s="2" t="s">
         <v>38</v>
@@ -44043,19 +44046,19 @@
         <v>136</v>
       </c>
       <c r="Y489" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Z489" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AA489" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB489" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AC489" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AD489" s="2" t="s">
         <v>38</v>
@@ -45015,7 +45018,7 @@
         <v>72</v>
       </c>
       <c r="H501" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I501" s="2" t="s">
         <v>38</v>
@@ -45063,7 +45066,7 @@
         <v>38</v>
       </c>
       <c r="X501" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y501" s="2" t="s">
         <v>77</v>
@@ -47319,7 +47322,7 @@
         <v>38</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>84</v>
@@ -47337,7 +47340,7 @@
         <v>80</v>
       </c>
       <c r="H528" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I528" s="2" t="s">
         <v>85</v>
@@ -47971,16 +47974,16 @@
     </row>
     <row r="536" s="1" customFormat="1" spans="1:30">
       <c r="A536" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>130</v>
@@ -47998,7 +48001,7 @@
         <v>48</v>
       </c>
       <c r="J536" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K536" s="2" t="s">
         <v>43</v>
@@ -48013,7 +48016,7 @@
         <v>42</v>
       </c>
       <c r="O536" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P536" s="2" t="s">
         <v>212</v>
@@ -48443,7 +48446,7 @@
         <v>84</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F541" s="2" t="s">
         <v>38</v>
@@ -49086,13 +49089,13 @@
     </row>
     <row r="549" s="1" customFormat="1" spans="1:30">
       <c r="A549" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D549" s="2" t="s">
         <v>130</v>
@@ -49113,7 +49116,7 @@
         <v>48</v>
       </c>
       <c r="J549" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K549" s="2" t="s">
         <v>46</v>
@@ -49128,7 +49131,7 @@
         <v>44</v>
       </c>
       <c r="O549" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P549" s="2" t="s">
         <v>46</v>
@@ -49155,7 +49158,7 @@
         <v>48</v>
       </c>
       <c r="X549" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y549" s="2" t="s">
         <v>36</v>
@@ -49484,7 +49487,7 @@
         <v>73</v>
       </c>
       <c r="K553" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L553" s="2" t="s">
         <v>71</v>
@@ -49505,7 +49508,7 @@
         <v>71</v>
       </c>
       <c r="R553" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="S553" s="2" t="s">
         <v>79</v>
@@ -49517,7 +49520,7 @@
         <v>75</v>
       </c>
       <c r="V553" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="W553" s="2" t="s">
         <v>72</v>
@@ -49558,7 +49561,7 @@
         <v>84</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F554" s="2" t="s">
         <v>38</v>
@@ -49594,13 +49597,13 @@
         <v>84</v>
       </c>
       <c r="Q554" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R554" s="2" t="s">
         <v>136</v>
       </c>
       <c r="S554" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T554" s="2" t="s">
         <v>38</v>
@@ -49621,10 +49624,10 @@
         <v>136</v>
       </c>
       <c r="Z554" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AA554" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB554" s="2" t="s">
         <v>80</v>
@@ -50201,22 +50204,22 @@
     </row>
     <row r="562" s="1" customFormat="1" spans="1:30">
       <c r="A562" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E562" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F562" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B562" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C562" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D562" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E562" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F562" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="G562" s="2" t="s">
         <v>48</v>
@@ -50243,10 +50246,10 @@
         <v>38</v>
       </c>
       <c r="O562" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P562" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q562" s="2" t="s">
         <v>168</v>
@@ -50255,10 +50258,10 @@
         <v>168</v>
       </c>
       <c r="S562" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="T562" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="U562" s="2" t="s">
         <v>40</v>
@@ -50706,10 +50709,10 @@
         <v>176</v>
       </c>
       <c r="P567" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q567" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R567" s="2" t="s">
         <v>172</v>
@@ -52464,7 +52467,7 @@
         <v>49</v>
       </c>
       <c r="L588" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M588" s="2" t="s">
         <v>42</v>
@@ -52500,7 +52503,7 @@
         <v>48</v>
       </c>
       <c r="X588" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y588" s="2" t="s">
         <v>35</v>
@@ -52509,7 +52512,7 @@
         <v>45</v>
       </c>
       <c r="AA588" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AB588" s="2" t="s">
         <v>49</v>
@@ -52900,7 +52903,7 @@
         <v>38</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E593" s="2" t="s">
         <v>143</v>
@@ -52942,7 +52945,7 @@
         <v>38</v>
       </c>
       <c r="R593" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S593" s="2" t="s">
         <v>136</v>
@@ -52954,7 +52957,7 @@
         <v>360</v>
       </c>
       <c r="V593" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W593" s="2" t="s">
         <v>80</v>
@@ -52972,7 +52975,7 @@
         <v>83</v>
       </c>
       <c r="AB593" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC593" s="2" t="s">
         <v>38</v>
@@ -53579,7 +53582,7 @@
         <v>128</v>
       </c>
       <c r="L601" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M601" s="2" t="s">
         <v>38</v>
@@ -53600,13 +53603,13 @@
         <v>37</v>
       </c>
       <c r="S601" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="T601" s="2" t="s">
         <v>38</v>
       </c>
       <c r="U601" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="V601" s="2" t="s">
         <v>130</v>
@@ -54691,7 +54694,7 @@
         <v>46</v>
       </c>
       <c r="K614" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L614" s="2" t="s">
         <v>274</v>
@@ -54700,7 +54703,7 @@
         <v>38</v>
       </c>
       <c r="N614" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O614" s="2" t="s">
         <v>44</v>
@@ -55047,7 +55050,7 @@
         <v>38</v>
       </c>
       <c r="G618" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H618" s="2" t="s">
         <v>74</v>
@@ -55071,13 +55074,13 @@
         <v>74</v>
       </c>
       <c r="O618" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P618" s="2" t="s">
         <v>135</v>
       </c>
       <c r="Q618" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="R618" s="2" t="s">
         <v>38</v>
@@ -55089,7 +55092,7 @@
         <v>38</v>
       </c>
       <c r="U618" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="V618" s="2" t="s">
         <v>38</v>
@@ -55104,7 +55107,7 @@
         <v>75</v>
       </c>
       <c r="Z618" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AA618" s="2" t="s">
         <v>73</v>
@@ -55113,7 +55116,7 @@
         <v>239</v>
       </c>
       <c r="AC618" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AD618" s="2" t="s">
         <v>38</v>
@@ -55142,16 +55145,16 @@
         <v>143</v>
       </c>
       <c r="H619" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I619" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J619" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K619" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L619" s="2" t="s">
         <v>38</v>
@@ -55166,7 +55169,7 @@
         <v>136</v>
       </c>
       <c r="P619" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q619" s="2" t="s">
         <v>136</v>
@@ -55190,22 +55193,22 @@
         <v>136</v>
       </c>
       <c r="X619" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Y619" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Z619" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AA619" s="2" t="s">
         <v>136</v>
       </c>
       <c r="AB619" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC619" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AD619" s="2" t="s">
         <v>38</v>
@@ -55806,7 +55809,7 @@
         <v>38</v>
       </c>
       <c r="K627" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L627" s="2" t="s">
         <v>373</v>
@@ -55827,7 +55830,7 @@
         <v>41</v>
       </c>
       <c r="R627" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S627" s="2" t="s">
         <v>43</v>
@@ -55848,7 +55851,7 @@
         <v>46</v>
       </c>
       <c r="Y627" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z627" s="2" t="s">
         <v>130</v>
@@ -56921,7 +56924,7 @@
         <v>38</v>
       </c>
       <c r="K640" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L640" s="2" t="s">
         <v>379</v>
@@ -58036,7 +58039,7 @@
         <v>38</v>
       </c>
       <c r="K653" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L653" s="2" t="s">
         <v>382</v>
@@ -59151,7 +59154,7 @@
         <v>38</v>
       </c>
       <c r="K666" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L666" s="2" t="s">
         <v>382</v>
